--- a/Reward_System.xlsx
+++ b/Reward_System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\grasp_prediction_rl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BE715B-E80B-4696-BD34-B77F14FF6CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B35FF-2D11-49C6-B683-BD55C0DD9828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1635" windowWidth="38640" windowHeight="21240" xr2:uid="{FDA7E70B-D209-4290-8FEB-C6903ADD06B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FDA7E70B-D209-4290-8FEB-C6903ADD06B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -318,53 +318,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -449,9 +402,38 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -473,26 +455,44 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -573,8 +573,8 @@
       <xdr:rowOff>27980</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2061655" cy="363113"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Textfeld 5">
@@ -616,6 +616,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -753,7 +754,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Textfeld 5">
@@ -813,25 +814,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D47C2B3-2064-4858-A417-BD3E5F003E18}" name="Tabelle2" displayName="Tabelle2" ref="A3:G19" totalsRowShown="0" headerRowDxfId="2" dataDxfId="7" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D47C2B3-2064-4858-A417-BD3E5F003E18}" name="Tabelle2" displayName="Tabelle2" ref="A3:G19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A3:G19" xr:uid="{3D47C2B3-2064-4858-A417-BD3E5F003E18}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D8380B68-8C25-4319-A986-30426AD172AA}" name="Belohnung/Bestrafung" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{5CF75D93-FCCF-4D68-AC00-4C060F565D60}" name="Belohnung/Strafe" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0FEE7379-0536-433D-9733-8D5FABD76878}" name="Implementiert" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{62452366-1952-4D20-B766-648688D6ACB9}" name="Beschreibung" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{8AECD7FE-7691-4A65-A84D-D75DA8553FD0}" name="Berechnung" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B527DC08-4D85-4131-ABC2-95BA3B2B0D43}" name="Maximale Belohnung" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E93B8344-54AA-4B22-A4F0-15EA04F0CB5E}" name="Minimale Belohnung" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D8380B68-8C25-4319-A986-30426AD172AA}" name="Belohnung/Bestrafung" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5CF75D93-FCCF-4D68-AC00-4C060F565D60}" name="Belohnung/Strafe" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0FEE7379-0536-433D-9733-8D5FABD76878}" name="Implementiert" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{62452366-1952-4D20-B766-648688D6ACB9}" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8AECD7FE-7691-4A65-A84D-D75DA8553FD0}" name="Berechnung" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B527DC08-4D85-4131-ABC2-95BA3B2B0D43}" name="Maximale Belohnung" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E93B8344-54AA-4B22-A4F0-15EA04F0CB5E}" name="Minimale Belohnung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -869,7 +870,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -975,7 +976,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1117,7 +1118,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1127,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6B0125-62AF-4CE1-9BA5-8D4F6C522B5B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
